--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020421.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020421.xlsx_with_dialog_acts.xlsx
@@ -675,12 +675,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2355,12 +2355,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2635,12 +2635,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3315,12 +3315,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3719,12 +3719,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3879,12 +3879,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5559,12 +5559,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5639,12 +5639,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6163,12 +6163,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6243,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6763,12 +6763,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7087,12 +7087,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7407,12 +7407,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7727,12 +7727,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8327,12 +8327,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9047,12 +9047,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9567,12 +9567,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9607,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9727,12 +9727,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9767,12 +9767,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9887,12 +9887,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10131,12 +10131,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10695,12 +10695,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10859,12 +10859,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11099,12 +11099,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11619,12 +11619,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12729,12 +12729,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12881,12 +12881,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13033,12 +13033,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13071,12 +13071,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13147,12 +13147,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13185,12 +13185,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13261,12 +13261,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14363,12 +14363,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14477,12 +14477,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14933,12 +14933,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14971,12 +14971,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15427,12 +15427,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15811,12 +15811,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16077,12 +16077,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16191,12 +16191,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16685,12 +16685,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16913,12 +16913,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17141,12 +17141,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17901,12 +17901,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18661,12 +18661,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18889,12 +18889,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19349,12 +19349,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19651,12 +19651,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19727,12 +19727,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19803,12 +19803,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20145,12 +20145,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20449,12 +20449,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20525,12 +20525,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21057,12 +21057,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21589,12 +21589,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21627,12 +21627,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21665,12 +21665,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21741,12 +21741,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22767,12 +22767,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22805,12 +22805,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22957,12 +22957,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23831,12 +23831,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23945,12 +23945,12 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24249,12 +24249,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24325,12 +24325,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24819,12 +24819,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25009,12 +25009,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27987,12 +27987,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28027,12 +28027,12 @@
       <c r="H709" t="inlineStr"/>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28307,12 +28307,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28587,12 +28587,12 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28711,12 +28711,12 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28751,12 +28751,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28791,12 +28791,12 @@
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28831,12 +28831,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29839,12 +29839,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30203,12 +30203,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30243,12 +30243,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30923,12 +30923,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30963,12 +30963,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31603,12 +31603,12 @@
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
